--- a/WesternSecurity/页面开发.xlsx
+++ b/WesternSecurity/页面开发.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\西部证券\数据中台\数据研发\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Personal\Coding\LearnPython\WesternSecurity\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB7331E6-DC08-4425-8F80-609BAAEBAE36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB7DFF53-278F-4EE2-8A11-170C5BBBF9B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{CD8DF196-53CA-4E97-A2D9-2637FB7300A2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" activeTab="1" xr2:uid="{CD8DF196-53CA-4E97-A2D9-2637FB7300A2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="96">
   <si>
     <t>文字</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -154,10 +154,6 @@
     <t>p7_text</t>
   </si>
   <si>
-    <t>p3_text</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Final_Text</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -181,25 +177,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>p1=1 then 新高
-p1 =-1 then 新低</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>p2_text</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>p3&gt;0.8 then 高位
-p3&lt;0.2 then 低位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>处{p3}%历史高位/低位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EPS(单季度)同比增速</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -858,12 +836,144 @@
 print(target_text)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>EPS_YOY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Comment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指数.EPS(单季度)同比_趋势判断</t>
+  </si>
+  <si>
+    <t>指数.EPS(单季度)同比_边际趋势</t>
+  </si>
+  <si>
+    <t>指数.EPS(单季度)同比</t>
+  </si>
+  <si>
+    <t>Indicator_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRD_REQUEST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MarketTrendFinance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EPS_TTM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指数.EPS(TTM)同比_趋势判断</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TotalEarning_YOY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p1=1 then 新高
+p1 =-6 then 新低</t>
+  </si>
+  <si>
+    <t>p1=1 then 新高
+p1 =-7 then 新低</t>
+  </si>
+  <si>
+    <t>p1=1 then 新高
+p1 =-8 then 新低</t>
+  </si>
+  <si>
+    <t>Logic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p2&gt;0 then 连续{p2} 周/月/期 及以上上升
+p2&lt;0 then 连续{p2} 周/月/期 及以上下降</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p1=1 then 创历史新高
+p1 =-1 then 创历史新低</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p2&gt;0 then 连续{p2} 周/月/期 及以上上升上升
+p2&lt;0 then 连续{p2} 周/月/期 及以上上升下降</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p3&gt;0.8 then 处于{p3}%市场}高位
+p3&lt;0.2 then 处于{p3}%市场}低位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p1=1 then 创历史新高
+p1 =-2 then 创历史新低</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EPS_RATING</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P1=521700000003 ;
+P2=521700000004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指数.EPS评分</t>
+  </si>
+  <si>
+    <t>p2&gt; 5% then 上升{p1}分
+p2&lt; -5% then 下降{p1}分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p2&gt; 5% then 上升{p1}分
+p2&lt; -5% then 下降{p2}分</t>
+  </si>
+  <si>
+    <t>p2&gt; 5% then 上升{p1}分
+p2&lt; -5% then 下降{p3}分</t>
+  </si>
+  <si>
+    <t>EARNING_RATING</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P1=522500000004  ;
+P2=522500000001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指数.收入回报评分</t>
+  </si>
+  <si>
+    <t>REPORTING_RATING</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P1=522600000004 ;
+P2=522600000001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指数财报健康评分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -898,6 +1008,14 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -907,12 +1025,27 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -921,7 +1054,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -938,12 +1071,24 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1266,13 +1411,13 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="116.33203125" customWidth="1"/>
-    <col min="4" max="4" width="112.08203125" customWidth="1"/>
+    <col min="3" max="3" width="116.375" customWidth="1"/>
+    <col min="4" max="4" width="112.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C1" t="s">
         <v>4</v>
       </c>
@@ -1280,7 +1425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="308" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="313.5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1294,63 +1439,63 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="238" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="242.25" x14ac:dyDescent="0.2">
       <c r="C3" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:4" ht="126" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="128.25" x14ac:dyDescent="0.2">
       <c r="C4" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="168" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="171" x14ac:dyDescent="0.2">
       <c r="C5" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="182" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="185.25" x14ac:dyDescent="0.2">
       <c r="C6" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="196" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="199.5" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C8" s="1"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C9" s="1"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C10" s="1"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C11" s="1"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C12" s="1"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C13" s="1"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C14" s="1"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C15" s="1"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C16" s="1"/>
     </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C17" s="1"/>
     </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C18" s="1"/>
     </row>
   </sheetData>
@@ -1362,119 +1507,291 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACD98BBA-E675-46B2-A8CF-AA21368F3276}">
-  <dimension ref="B1:I5"/>
+  <dimension ref="B1:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomLeft" activeCell="F9" sqref="B1:F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="31.58203125" customWidth="1"/>
-    <col min="3" max="3" width="35.25" customWidth="1"/>
-    <col min="4" max="4" width="11.75" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="30.25" style="3" customWidth="1"/>
-    <col min="6" max="6" width="36.5" customWidth="1"/>
-    <col min="8" max="8" width="24.1640625" customWidth="1"/>
+    <col min="3" max="3" width="31.625" customWidth="1"/>
+    <col min="4" max="4" width="30.25" style="3" customWidth="1"/>
+    <col min="5" max="5" width="31.75" customWidth="1"/>
+    <col min="6" max="6" width="66.375" customWidth="1"/>
+    <col min="8" max="8" width="24.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I1" t="s">
         <v>27</v>
       </c>
-      <c r="C1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" s="3" t="s">
+    </row>
+    <row r="2" spans="2:9" ht="409.5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H1" t="s">
+    </row>
+    <row r="3" spans="2:9" ht="273" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3" t="s">
         <v>64</v>
       </c>
-      <c r="I1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="2:9" ht="409.5" x14ac:dyDescent="0.3">
-      <c r="B2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="3" t="s">
+      <c r="D3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="G3" s="7"/>
+      <c r="H3" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" ht="409.5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="E4" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G4" s="7"/>
+      <c r="H4" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" ht="28.5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="H5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" ht="28.5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C6" t="s">
+        <v>74</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="H6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" ht="28.5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C7" t="s">
+        <v>84</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="H7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" ht="28.5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C8" t="s">
+        <v>90</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C9" t="s">
+        <v>93</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="H9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>71</v>
+      </c>
+      <c r="C10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H10" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>71</v>
+      </c>
+      <c r="C11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>71</v>
+      </c>
+      <c r="C12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H12" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="D15" s="11"/>
+      <c r="E15" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F15" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="2:9" ht="285" x14ac:dyDescent="0.3">
-      <c r="B3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" s="5"/>
-      <c r="H3" s="7" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="4" spans="2:9" ht="409.5" x14ac:dyDescent="0.3">
-      <c r="B4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G4" s="5"/>
-      <c r="H4" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="H5" t="s">
-        <v>65</v>
-      </c>
+      <c r="G15" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="D16" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1491,26 +1808,26 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="F2" sqref="A2:F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="33.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.08203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="33.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C1" t="s">
         <v>11</v>
@@ -1519,181 +1836,181 @@
         <v>14</v>
       </c>
       <c r="F1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="56" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="57" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B2" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="28" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B3" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="28" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B4" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E4" t="s">
-        <v>41</v>
-      </c>
-      <c r="F4" s="5"/>
-    </row>
-    <row r="5" spans="1:7" ht="28" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+      <c r="F4" s="7"/>
+    </row>
+    <row r="5" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B5" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" s="5"/>
-    </row>
-    <row r="6" spans="1:7" ht="28" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="F5" s="7"/>
+    </row>
+    <row r="6" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B6" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="F6" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="28" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
-        <v>46</v>
-      </c>
       <c r="B7" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F7" s="5"/>
-    </row>
-    <row r="8" spans="1:7" ht="28" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="F7" s="7"/>
+    </row>
+    <row r="8" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B8" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8" s="7"/>
+    </row>
+    <row r="9" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="F8" s="5"/>
-    </row>
-    <row r="9" spans="1:7" ht="28" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
-        <v>46</v>
-      </c>
       <c r="B9" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F9" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" ht="28" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B10" t="s">
-        <v>48</v>
-      </c>
       <c r="C10" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E10" t="s">
-        <v>41</v>
-      </c>
-      <c r="F10" s="5"/>
+        <v>36</v>
+      </c>
+      <c r="F10" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1711,17 +2028,17 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:E2"/>
+      <selection activeCell="E2" sqref="A2:E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.75" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="16.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C1" t="s">
         <v>11</v>
@@ -1730,30 +2047,30 @@
         <v>14</v>
       </c>
       <c r="F1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" t="s">
         <v>17</v>
       </c>
-      <c r="G1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="42" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" t="s">
-        <v>18</v>
-      </c>
       <c r="F2" s="2" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -1767,20 +2084,20 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="E2" sqref="A2:E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.75" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="16.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="5" max="5" width="55.83203125" customWidth="1"/>
+    <col min="5" max="5" width="55.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C1" t="s">
         <v>11</v>
@@ -1789,44 +2106,44 @@
         <v>14</v>
       </c>
       <c r="F1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="409.5" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="28" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="C3" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="F3" s="2"/>
     </row>
@@ -1842,7 +2159,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1857,17 +2174,17 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.75" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="16.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="5" max="5" width="55.83203125" customWidth="1"/>
+    <col min="5" max="5" width="55.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C1" t="s">
         <v>11</v>
@@ -1876,44 +2193,44 @@
         <v>14</v>
       </c>
       <c r="F1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="409.5" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B2" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="28" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="C3" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="F3" s="2"/>
     </row>
@@ -1931,17 +2248,17 @@
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.75" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="16.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="5" max="5" width="55.83203125" customWidth="1"/>
+    <col min="5" max="5" width="55.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C1" t="s">
         <v>11</v>
@@ -1950,44 +2267,44 @@
         <v>14</v>
       </c>
       <c r="F1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="409.5" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="28" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="C3" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="F3" s="2"/>
     </row>

--- a/WesternSecurity/页面开发.xlsx
+++ b/WesternSecurity/页面开发.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18350" windowHeight="7560" firstSheet="4" activeTab="9"/>
+    <workbookView windowWidth="18350" windowHeight="8010" firstSheet="4" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="309">
   <si>
     <t>Prompt</t>
   </si>
@@ -2562,6 +2562,111 @@
       <t>522600000001</t>
     </r>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>资金供给</t>
+    </r>
+  </si>
+  <si>
+    <t>market_value</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>市场.公募基金发行金额</t>
+    </r>
+  </si>
+  <si>
+    <t>market_etf</t>
+  </si>
+  <si>
+    <t>p1=241700000001
+p2=241700000000</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>市场.ETF净申购金额</t>
+    </r>
+  </si>
+  <si>
+    <t>if p1&gt;0 then “上升"
+if p2&lt;0 then “下降"</t>
+  </si>
+  <si>
+    <t>market_buying</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>市场.融资净买入金额</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>241700000002</t>
+    </r>
+  </si>
+  <si>
+    <t>market_fund</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>市场.陆股通净流入金额</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>241700000003</t>
+    </r>
+  </si>
 </sst>
 </file>
 
@@ -2573,7 +2678,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2598,6 +2703,20 @@
     </font>
     <font>
       <sz val="9"/>
+      <color rgb="FFDF2A3F"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF262626"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <color rgb="FF262626"/>
       <name val="Segoe UI"/>
       <charset val="134"/>
@@ -2613,13 +2732,6 @@
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF262626"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -3119,133 +3231,133 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3274,36 +3386,39 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -3319,13 +3434,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3674,7 +3786,7 @@
       <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D2" t="s">
@@ -3682,63 +3794,63 @@
       </c>
     </row>
     <row r="3" ht="238" spans="3:4">
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="8"/>
+      <c r="D3" s="3"/>
     </row>
     <row r="4" ht="126" spans="3:3">
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" ht="168" spans="3:3">
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" ht="182" spans="3:3">
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" ht="196" spans="3:3">
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="3:3">
-      <c r="C8" s="8"/>
+      <c r="C8" s="3"/>
     </row>
     <row r="9" spans="3:3">
-      <c r="C9" s="8"/>
+      <c r="C9" s="3"/>
     </row>
     <row r="10" spans="3:3">
-      <c r="C10" s="8"/>
+      <c r="C10" s="3"/>
     </row>
     <row r="11" spans="3:3">
-      <c r="C11" s="8"/>
+      <c r="C11" s="3"/>
     </row>
     <row r="12" spans="3:3">
-      <c r="C12" s="8"/>
+      <c r="C12" s="3"/>
     </row>
     <row r="13" spans="3:3">
-      <c r="C13" s="8"/>
+      <c r="C13" s="3"/>
     </row>
     <row r="14" spans="3:3">
-      <c r="C14" s="8"/>
+      <c r="C14" s="3"/>
     </row>
     <row r="15" spans="3:3">
-      <c r="C15" s="8"/>
+      <c r="C15" s="3"/>
     </row>
     <row r="16" spans="3:3">
-      <c r="C16" s="8"/>
+      <c r="C16" s="3"/>
     </row>
     <row r="17" spans="3:3">
-      <c r="C17" s="8"/>
+      <c r="C17" s="3"/>
     </row>
     <row r="18" spans="3:3">
-      <c r="C18" s="8"/>
+      <c r="C18" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3750,15 +3862,15 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="14" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="31" customWidth="1"/>
+    <col min="1" max="1" width="22.5" customWidth="1"/>
     <col min="2" max="2" width="19.6666666666667" customWidth="1"/>
     <col min="3" max="3" width="27.3333333333333" customWidth="1"/>
     <col min="4" max="4" width="17.4166666666667" customWidth="1"/>
@@ -3782,7 +3894,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" ht="56" spans="1:5">
+    <row r="2" ht="56" hidden="1" spans="1:5">
       <c r="A2" t="s">
         <v>236</v>
       </c>
@@ -3799,7 +3911,10 @@
         <v>240</v>
       </c>
     </row>
-    <row r="6" ht="23" spans="1:6">
+    <row r="3" hidden="1"/>
+    <row r="4" hidden="1"/>
+    <row r="5" hidden="1"/>
+    <row r="6" ht="23" hidden="1" spans="1:6">
       <c r="A6" s="4" t="s">
         <v>241</v>
       </c>
@@ -3816,7 +3931,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="7" ht="23" spans="1:6">
+    <row r="7" ht="23" hidden="1" spans="1:6">
       <c r="A7" s="4"/>
       <c r="B7" s="2" t="s">
         <v>245</v>
@@ -3834,7 +3949,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="8" ht="23" spans="1:6">
+    <row r="8" ht="23" hidden="1" spans="1:6">
       <c r="A8" s="4"/>
       <c r="B8" s="2" t="s">
         <v>248</v>
@@ -3850,7 +3965,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="9" ht="23" spans="1:6">
+    <row r="9" ht="23" hidden="1" spans="1:6">
       <c r="A9" s="4"/>
       <c r="B9" s="2" t="s">
         <v>250</v>
@@ -3868,7 +3983,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="10" ht="23" spans="1:6">
+    <row r="10" ht="23" hidden="1" spans="1:6">
       <c r="A10" s="4"/>
       <c r="B10" s="7" t="s">
         <v>252</v>
@@ -3884,7 +3999,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="11" ht="23" spans="1:6">
+    <row r="11" ht="23" hidden="1" spans="1:6">
       <c r="A11" s="4"/>
       <c r="B11" s="7" t="s">
         <v>254</v>
@@ -3900,7 +4015,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="12" ht="23" spans="1:6">
+    <row r="12" ht="23" hidden="1" spans="1:6">
       <c r="A12" s="4"/>
       <c r="B12" s="2" t="s">
         <v>256</v>
@@ -3918,7 +4033,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="13" ht="23" spans="1:6">
+    <row r="13" ht="23" hidden="1" spans="1:6">
       <c r="A13" s="4"/>
       <c r="B13" s="2" t="s">
         <v>258</v>
@@ -3932,7 +4047,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="14" ht="23" spans="1:6">
+    <row r="14" ht="23" hidden="1" spans="1:6">
       <c r="A14" s="4"/>
       <c r="B14" s="2" t="s">
         <v>260</v>
@@ -3948,7 +4063,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="15" ht="23" spans="1:6">
+    <row r="15" ht="23" hidden="1" spans="1:6">
       <c r="A15" s="4"/>
       <c r="B15" s="2" t="s">
         <v>263</v>
@@ -3964,7 +4079,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="16" ht="23" spans="1:6">
+    <row r="16" ht="23" hidden="1" spans="1:6">
       <c r="A16" s="4"/>
       <c r="B16" s="2" t="s">
         <v>266</v>
@@ -3978,7 +4093,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="17" ht="23" spans="1:6">
+    <row r="17" ht="23" hidden="1" spans="1:6">
       <c r="A17" s="4"/>
       <c r="B17" s="2" t="s">
         <v>268</v>
@@ -3994,7 +4109,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="18" ht="23" spans="1:6">
+    <row r="18" ht="23" hidden="1" spans="1:6">
       <c r="A18" s="4"/>
       <c r="B18" s="2" t="s">
         <v>271</v>
@@ -4010,7 +4125,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="19" ht="23" spans="1:6">
+    <row r="19" ht="23" hidden="1" spans="1:6">
       <c r="A19" s="4"/>
       <c r="B19" s="2" t="s">
         <v>274</v>
@@ -4026,7 +4141,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="20" ht="23" spans="1:6">
+    <row r="20" ht="23" hidden="1" spans="1:6">
       <c r="A20" s="4"/>
       <c r="B20" s="2" t="s">
         <v>277</v>
@@ -4042,7 +4157,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="21" ht="23" spans="1:6">
+    <row r="21" ht="23" hidden="1" spans="1:6">
       <c r="A21" s="4"/>
       <c r="B21" s="2" t="s">
         <v>280</v>
@@ -4056,7 +4171,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="22" ht="23" spans="1:6">
+    <row r="22" ht="23" hidden="1" spans="1:6">
       <c r="A22" s="4"/>
       <c r="B22" s="2" t="s">
         <v>282</v>
@@ -4070,7 +4185,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="23" ht="23" spans="1:6">
+    <row r="23" ht="23" hidden="1" spans="1:6">
       <c r="A23" s="4"/>
       <c r="B23" s="2" t="s">
         <v>284</v>
@@ -4084,7 +4199,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="24" ht="23" spans="1:6">
+    <row r="24" ht="23" hidden="1" spans="1:6">
       <c r="A24" s="4"/>
       <c r="B24" s="2" t="s">
         <v>286</v>
@@ -4098,7 +4213,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="25" ht="23" spans="1:6">
+    <row r="25" ht="23" hidden="1" spans="1:6">
       <c r="A25" s="4"/>
       <c r="B25" s="2" t="s">
         <v>288</v>
@@ -4112,7 +4227,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="26" ht="23" spans="1:6">
+    <row r="26" ht="23" hidden="1" spans="1:6">
       <c r="A26" s="4"/>
       <c r="B26" s="2" t="s">
         <v>290</v>
@@ -4126,7 +4241,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="27" ht="23" spans="1:6">
+    <row r="27" ht="23" hidden="1" spans="1:6">
       <c r="A27" s="4"/>
       <c r="B27" s="2" t="s">
         <v>292</v>
@@ -4140,7 +4255,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="28" ht="23" spans="1:6">
+    <row r="28" ht="23" hidden="1" spans="1:6">
       <c r="A28" s="4"/>
       <c r="B28" s="2" t="s">
         <v>294</v>
@@ -4152,6 +4267,67 @@
       </c>
       <c r="F28" s="6" t="s">
         <v>295</v>
+      </c>
+    </row>
+    <row r="29" hidden="1"/>
+    <row r="30" hidden="1"/>
+    <row r="31" hidden="1"/>
+    <row r="32" hidden="1"/>
+    <row r="33" hidden="1"/>
+    <row r="34" hidden="1" spans="1:5">
+      <c r="A34" s="8" t="s">
+        <v>296</v>
+      </c>
+      <c r="B34" t="s">
+        <v>297</v>
+      </c>
+      <c r="C34" s="9"/>
+      <c r="D34" s="10" t="s">
+        <v>298</v>
+      </c>
+      <c r="E34" s="11"/>
+    </row>
+    <row r="35" ht="23" spans="1:5">
+      <c r="A35" s="8" t="s">
+        <v>296</v>
+      </c>
+      <c r="B35" t="s">
+        <v>299</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>300</v>
+      </c>
+      <c r="D35" s="10" t="s">
+        <v>301</v>
+      </c>
+      <c r="E35" s="12" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="36" ht="23" spans="1:6">
+      <c r="A36" s="8"/>
+      <c r="B36" t="s">
+        <v>303</v>
+      </c>
+      <c r="D36" s="10" t="s">
+        <v>304</v>
+      </c>
+      <c r="E36" s="12"/>
+      <c r="F36" s="9" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="37" ht="23" spans="1:6">
+      <c r="A37" s="8"/>
+      <c r="B37" t="s">
+        <v>306</v>
+      </c>
+      <c r="D37" s="10" t="s">
+        <v>307</v>
+      </c>
+      <c r="E37" s="12"/>
+      <c r="F37" s="9" t="s">
+        <v>308</v>
       </c>
     </row>
   </sheetData>
@@ -4214,22 +4390,22 @@
       <c r="B2" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="G2" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="3" t="s">
         <v>26</v>
       </c>
     </row>
@@ -4240,17 +4416,17 @@
       <c r="B3" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="9"/>
-      <c r="G3" s="14" t="s">
+      <c r="F3" s="13"/>
+      <c r="G3" s="17" t="s">
         <v>30</v>
       </c>
     </row>
@@ -4264,14 +4440,14 @@
       <c r="C4" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9" t="s">
+      <c r="F4" s="13"/>
+      <c r="G4" s="13" t="s">
         <v>34</v>
       </c>
     </row>
@@ -4285,10 +4461,10 @@
       <c r="C5" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="D5" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="3" t="s">
         <v>38</v>
       </c>
       <c r="G5" t="s">
@@ -4308,7 +4484,7 @@
       <c r="D6" t="s">
         <v>42</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="3" t="s">
         <v>29</v>
       </c>
       <c r="G6" t="s">
@@ -4322,13 +4498,13 @@
       <c r="B7" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="3" t="s">
         <v>46</v>
       </c>
       <c r="G7" t="s">
@@ -4342,13 +4518,13 @@
       <c r="B8" t="s">
         <v>47</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="E8" s="3" t="s">
         <v>46</v>
       </c>
       <c r="G8" t="s">
@@ -4362,13 +4538,13 @@
       <c r="B9" t="s">
         <v>50</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="D9" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="E9" s="3" t="s">
         <v>53</v>
       </c>
       <c r="G9" t="s">
@@ -4382,13 +4558,13 @@
       <c r="B10" t="s">
         <v>55</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="D10" s="15" t="s">
+      <c r="D10" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="E10" s="3" t="s">
         <v>58</v>
       </c>
       <c r="G10" t="s">
@@ -4402,17 +4578,17 @@
       <c r="B11" t="s">
         <v>55</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="D11" s="12" t="s">
+      <c r="D11" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="E11" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F11" s="9"/>
-      <c r="G11" s="14" t="s">
+      <c r="F11" s="13"/>
+      <c r="G11" s="17" t="s">
         <v>30</v>
       </c>
     </row>
@@ -4420,19 +4596,19 @@
       <c r="A12" t="s">
         <v>60</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="C12" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="D12" s="12" t="s">
+      <c r="D12" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="E12" s="16" t="s">
+      <c r="E12" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="F12" s="17" t="s">
+      <c r="F12" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="G12" s="14" t="s">
+      <c r="G12" s="17" t="s">
         <v>30</v>
       </c>
     </row>
@@ -4443,16 +4619,16 @@
       <c r="B13" t="s">
         <v>65</v>
       </c>
-      <c r="C13" s="12" t="s">
+      <c r="C13" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D13" s="12" t="s">
+      <c r="D13" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="E13" s="8" t="s">
+      <c r="E13" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="F13" s="17" t="s">
+      <c r="F13" s="6" t="s">
         <v>68</v>
       </c>
     </row>
@@ -4463,16 +4639,16 @@
       <c r="B14" t="s">
         <v>65</v>
       </c>
-      <c r="C14" s="12" t="s">
+      <c r="C14" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="D14" s="12" t="s">
+      <c r="D14" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E14" s="8" t="s">
+      <c r="E14" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="F14" s="17" t="s">
+      <c r="F14" s="6" t="s">
         <v>72</v>
       </c>
     </row>
@@ -4483,16 +4659,16 @@
       <c r="B15" t="s">
         <v>73</v>
       </c>
-      <c r="C15" s="12" t="s">
+      <c r="C15" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D15" s="12" t="s">
+      <c r="D15" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="E15" s="8" t="s">
+      <c r="E15" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="F15" s="17" t="s">
+      <c r="F15" s="6" t="s">
         <v>76</v>
       </c>
     </row>
@@ -4503,16 +4679,16 @@
       <c r="B16" t="s">
         <v>73</v>
       </c>
-      <c r="C16" s="12" t="s">
+      <c r="C16" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="D16" s="12" t="s">
+      <c r="D16" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="E16" s="8" t="s">
+      <c r="E16" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="F16" s="17" t="s">
+      <c r="F16" s="6" t="s">
         <v>79</v>
       </c>
     </row>
@@ -4523,16 +4699,16 @@
       <c r="B17" t="s">
         <v>80</v>
       </c>
-      <c r="C17" s="12" t="s">
+      <c r="C17" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="D17" s="12" t="s">
+      <c r="D17" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="E17" s="8" t="s">
+      <c r="E17" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="F17" s="17" t="s">
+      <c r="F17" s="6" t="s">
         <v>84</v>
       </c>
     </row>
@@ -4543,16 +4719,16 @@
       <c r="B18" t="s">
         <v>80</v>
       </c>
-      <c r="C18" s="12" t="s">
+      <c r="C18" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="D18" s="12" t="s">
+      <c r="D18" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="E18" s="8" t="s">
+      <c r="E18" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="F18" s="17" t="s">
+      <c r="F18" s="6" t="s">
         <v>87</v>
       </c>
     </row>
@@ -4563,16 +4739,16 @@
       <c r="B19" t="s">
         <v>88</v>
       </c>
-      <c r="C19" s="12" t="s">
+      <c r="C19" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="D19" s="12" t="s">
+      <c r="D19" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="E19" s="8" t="s">
+      <c r="E19" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="F19" s="17" t="s">
+      <c r="F19" s="6" t="s">
         <v>91</v>
       </c>
     </row>
@@ -4583,16 +4759,16 @@
       <c r="B20" t="s">
         <v>88</v>
       </c>
-      <c r="C20" s="12" t="s">
+      <c r="C20" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="D20" s="12" t="s">
+      <c r="D20" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="E20" s="8" t="s">
+      <c r="E20" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="F20" s="17" t="s">
+      <c r="F20" s="6" t="s">
         <v>94</v>
       </c>
     </row>
@@ -4603,19 +4779,19 @@
       <c r="B21" t="s">
         <v>95</v>
       </c>
-      <c r="C21" s="11" t="s">
+      <c r="C21" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="D21" s="12" t="s">
+      <c r="D21" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E21" s="8" t="s">
+      <c r="E21" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="F21" s="18" t="s">
+      <c r="F21" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="G21" s="19" t="s">
+      <c r="G21" s="20" t="s">
         <v>98</v>
       </c>
     </row>
@@ -4626,17 +4802,17 @@
       <c r="B22" t="s">
         <v>95</v>
       </c>
-      <c r="C22" s="12" t="s">
+      <c r="C22" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="D22" s="20" t="s">
+      <c r="D22" s="21" t="s">
         <v>100</v>
       </c>
-      <c r="E22" s="8" t="s">
+      <c r="E22" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="F22" s="21"/>
-      <c r="G22" s="16" t="s">
+      <c r="F22" s="22"/>
+      <c r="G22" s="5" t="s">
         <v>102</v>
       </c>
     </row>
@@ -4647,16 +4823,16 @@
       <c r="B23" t="s">
         <v>104</v>
       </c>
-      <c r="C23" s="12" t="s">
+      <c r="C23" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="D23" s="12" t="s">
+      <c r="D23" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="E23" s="8" t="s">
+      <c r="E23" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="F23" s="17" t="s">
+      <c r="F23" s="6" t="s">
         <v>108</v>
       </c>
     </row>
@@ -4667,16 +4843,16 @@
       <c r="B24" t="s">
         <v>104</v>
       </c>
-      <c r="C24" s="12" t="s">
+      <c r="C24" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="D24" s="12" t="s">
+      <c r="D24" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="E24" s="8" t="s">
+      <c r="E24" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="F24" s="17" t="s">
+      <c r="F24" s="6" t="s">
         <v>111</v>
       </c>
     </row>
@@ -4687,16 +4863,16 @@
       <c r="B25" t="s">
         <v>112</v>
       </c>
-      <c r="C25" s="12" t="s">
+      <c r="C25" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="D25" s="12" t="s">
+      <c r="D25" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="E25" s="8" t="s">
+      <c r="E25" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="F25" s="17" t="s">
+      <c r="F25" s="6" t="s">
         <v>115</v>
       </c>
     </row>
@@ -4707,16 +4883,16 @@
       <c r="B26" t="s">
         <v>112</v>
       </c>
-      <c r="C26" s="12" t="s">
+      <c r="C26" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="D26" s="12" t="s">
+      <c r="D26" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="E26" s="8" t="s">
+      <c r="E26" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="F26" s="17" t="s">
+      <c r="F26" s="6" t="s">
         <v>118</v>
       </c>
     </row>
@@ -4727,16 +4903,16 @@
       <c r="B27" t="s">
         <v>119</v>
       </c>
-      <c r="C27" s="22" t="s">
+      <c r="C27" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="D27" s="12" t="s">
+      <c r="D27" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="E27" s="8" t="s">
+      <c r="E27" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="F27" s="17" t="s">
+      <c r="F27" s="6" t="s">
         <v>123</v>
       </c>
     </row>
@@ -4747,16 +4923,16 @@
       <c r="B28" t="s">
         <v>124</v>
       </c>
-      <c r="C28" s="22" t="s">
+      <c r="C28" s="23" t="s">
         <v>125</v>
       </c>
-      <c r="D28" s="12" t="s">
+      <c r="D28" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="E28" s="8" t="s">
+      <c r="E28" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="F28" s="17" t="s">
+      <c r="F28" s="6" t="s">
         <v>127</v>
       </c>
     </row>
@@ -4767,16 +4943,16 @@
       <c r="B29" t="s">
         <v>128</v>
       </c>
-      <c r="C29" s="22" t="s">
+      <c r="C29" s="23" t="s">
         <v>129</v>
       </c>
-      <c r="D29" s="12" t="s">
+      <c r="D29" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="E29" s="8" t="s">
+      <c r="E29" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="F29" s="17" t="s">
+      <c r="F29" s="6" t="s">
         <v>132</v>
       </c>
     </row>
@@ -4787,16 +4963,16 @@
       <c r="B30" t="s">
         <v>128</v>
       </c>
-      <c r="C30" s="12" t="s">
+      <c r="C30" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="D30" s="12" t="s">
+      <c r="D30" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="E30" s="8" t="s">
+      <c r="E30" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="F30" s="17" t="s">
+      <c r="F30" s="6" t="s">
         <v>135</v>
       </c>
     </row>
@@ -4807,13 +4983,13 @@
       <c r="B31" t="s">
         <v>136</v>
       </c>
-      <c r="C31" s="23" t="s">
+      <c r="C31" s="24" t="s">
         <v>137</v>
       </c>
-      <c r="D31" s="20" t="s">
+      <c r="D31" s="21" t="s">
         <v>138</v>
       </c>
-      <c r="E31" s="8" t="s">
+      <c r="E31" s="3" t="s">
         <v>71</v>
       </c>
     </row>
@@ -4824,13 +5000,13 @@
       <c r="B32" t="s">
         <v>140</v>
       </c>
-      <c r="C32" s="24" t="s">
+      <c r="C32" s="15" t="s">
         <v>141</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="E32" s="8" t="s">
+      <c r="E32" s="3" t="s">
         <v>143</v>
       </c>
     </row>
@@ -4847,7 +5023,7 @@
       <c r="D33" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="E33" s="8" t="s">
+      <c r="E33" s="3" t="s">
         <v>71</v>
       </c>
     </row>
@@ -4864,7 +5040,7 @@
       <c r="D34" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="E34" s="8" t="s">
+      <c r="E34" s="3" t="s">
         <v>143</v>
       </c>
     </row>
@@ -4881,7 +5057,7 @@
       <c r="D35" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="E35" s="8" t="s">
+      <c r="E35" s="3" t="s">
         <v>71</v>
       </c>
       <c r="F35" s="5" t="s">
@@ -4898,13 +5074,13 @@
       <c r="B36" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="C36" s="24" t="s">
+      <c r="C36" s="15" t="s">
         <v>154</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="E36" s="8" t="s">
+      <c r="E36" s="3" t="s">
         <v>156</v>
       </c>
       <c r="F36" s="5" t="s">
@@ -4927,7 +5103,7 @@
       <c r="D37" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="E37" s="8" t="s">
+      <c r="E37" s="3" t="s">
         <v>143</v>
       </c>
       <c r="F37" s="5" t="s">
@@ -4950,7 +5126,7 @@
       <c r="D38" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="E38" s="8" t="s">
+      <c r="E38" s="3" t="s">
         <v>71</v>
       </c>
       <c r="F38" s="5" t="s">
@@ -4967,13 +5143,13 @@
       <c r="B39" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="C39" s="24" t="s">
+      <c r="C39" s="15" t="s">
         <v>167</v>
       </c>
       <c r="D39" s="25" t="s">
         <v>168</v>
       </c>
-      <c r="E39" s="8" t="s">
+      <c r="E39" s="3" t="s">
         <v>169</v>
       </c>
       <c r="F39" s="5" t="s">
@@ -4996,7 +5172,7 @@
       <c r="D40" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="E40" s="8" t="s">
+      <c r="E40" s="3" t="s">
         <v>71</v>
       </c>
       <c r="F40" s="5" t="s">
@@ -5013,13 +5189,13 @@
       <c r="B41" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="C41" s="24" t="s">
+      <c r="C41" s="15" t="s">
         <v>175</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E41" s="8" t="s">
+      <c r="E41" s="3" t="s">
         <v>177</v>
       </c>
       <c r="F41" s="5" t="s">
@@ -5042,7 +5218,7 @@
       <c r="D42" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="E42" s="8" t="s">
+      <c r="E42" s="3" t="s">
         <v>71</v>
       </c>
       <c r="F42" s="5" t="s">
@@ -5059,13 +5235,13 @@
       <c r="B43" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="C43" s="24" t="s">
+      <c r="C43" s="15" t="s">
         <v>184</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="E43" s="8" t="s">
+      <c r="E43" s="3" t="s">
         <v>186</v>
       </c>
       <c r="F43" s="5" t="s">
@@ -5088,7 +5264,7 @@
       <c r="D44" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="E44" s="8" t="s">
+      <c r="E44" s="3" t="s">
         <v>71</v>
       </c>
       <c r="F44" s="5" t="s">
@@ -5102,10 +5278,10 @@
       <c r="A45" t="s">
         <v>191</v>
       </c>
-      <c r="C45" s="24" t="s">
+      <c r="C45" s="15" t="s">
         <v>192</v>
       </c>
-      <c r="E45" s="8" t="s">
+      <c r="E45" s="3" t="s">
         <v>4</v>
       </c>
     </row>
@@ -5172,22 +5348,22 @@
       <c r="B2" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="G2" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="3" t="s">
         <v>26</v>
       </c>
     </row>
@@ -5198,17 +5374,17 @@
       <c r="B3" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="F3" s="9"/>
-      <c r="G3" s="14" t="s">
+      <c r="F3" s="13"/>
+      <c r="G3" s="17" t="s">
         <v>30</v>
       </c>
     </row>
@@ -5222,14 +5398,14 @@
       <c r="C4" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9" t="s">
+      <c r="F4" s="13"/>
+      <c r="G4" s="13" t="s">
         <v>34</v>
       </c>
     </row>
@@ -5243,10 +5419,10 @@
       <c r="C5" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="D5" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="3" t="s">
         <v>38</v>
       </c>
       <c r="G5" t="s">
@@ -5266,7 +5442,7 @@
       <c r="D6" t="s">
         <v>42</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="3" t="s">
         <v>193</v>
       </c>
       <c r="G6" t="s">
@@ -5280,13 +5456,13 @@
       <c r="B7" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="3" t="s">
         <v>46</v>
       </c>
       <c r="G7" t="s">
@@ -5300,13 +5476,13 @@
       <c r="B8" t="s">
         <v>47</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="E8" s="3" t="s">
         <v>46</v>
       </c>
       <c r="G8" t="s">
@@ -5320,13 +5496,13 @@
       <c r="B9" t="s">
         <v>50</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="D9" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="E9" s="3" t="s">
         <v>53</v>
       </c>
       <c r="G9" t="s">
@@ -5340,13 +5516,13 @@
       <c r="B10" t="s">
         <v>55</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="D10" s="15" t="s">
+      <c r="D10" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="E10" s="3" t="s">
         <v>58</v>
       </c>
       <c r="G10" t="s">
@@ -5360,17 +5536,17 @@
       <c r="B11" t="s">
         <v>55</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="15" t="s">
         <v>194</v>
       </c>
-      <c r="D11" s="12" t="s">
+      <c r="D11" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="E11" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="F11" s="9"/>
-      <c r="G11" s="14" t="s">
+      <c r="F11" s="13"/>
+      <c r="G11" s="17" t="s">
         <v>30</v>
       </c>
     </row>
@@ -5384,14 +5560,14 @@
       <c r="C12" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="D12" s="12" t="s">
+      <c r="D12" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E12" s="8" t="s">
+      <c r="E12" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="F12" s="9"/>
-      <c r="G12" s="14" t="s">
+      <c r="F12" s="13"/>
+      <c r="G12" s="17" t="s">
         <v>30</v>
       </c>
     </row>
@@ -5402,89 +5578,89 @@
       <c r="B13" t="s">
         <v>195</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="15" t="s">
         <v>198</v>
       </c>
-      <c r="D13" s="12" t="s">
+      <c r="D13" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E13" s="8" t="s">
+      <c r="E13" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="F13" s="9"/>
-      <c r="G13" s="14" t="s">
+      <c r="F13" s="13"/>
+      <c r="G13" s="17" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="15" spans="3:5">
       <c r="C15"/>
-      <c r="E15" s="16" t="s">
+      <c r="E15" s="5" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="16" spans="3:5">
       <c r="C16"/>
-      <c r="E16" s="16" t="s">
+      <c r="E16" s="5" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="17" spans="3:5">
       <c r="C17"/>
-      <c r="E17" s="16" t="s">
+      <c r="E17" s="5" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="18" spans="3:5">
       <c r="C18"/>
-      <c r="E18" s="16" t="s">
+      <c r="E18" s="5" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="19" spans="3:5">
       <c r="C19"/>
-      <c r="E19" s="16" t="s">
+      <c r="E19" s="5" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="20" spans="3:5">
       <c r="C20"/>
-      <c r="E20" s="16" t="s">
+      <c r="E20" s="5" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="21" spans="3:5">
       <c r="C21"/>
-      <c r="E21" s="16" t="s">
+      <c r="E21" s="5" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="22" spans="3:5">
       <c r="C22"/>
-      <c r="E22" s="16" t="s">
+      <c r="E22" s="5" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="23" spans="3:5">
       <c r="C23"/>
-      <c r="E23" s="16" t="s">
+      <c r="E23" s="5" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="24" spans="3:5">
       <c r="C24"/>
-      <c r="E24" s="16" t="s">
+      <c r="E24" s="5" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="25" spans="3:5">
       <c r="C25"/>
-      <c r="E25" s="16" t="s">
+      <c r="E25" s="5" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="26" spans="3:5">
       <c r="C26"/>
-      <c r="E26" s="16" t="s">
+      <c r="E26" s="5" t="s">
         <v>199</v>
       </c>
     </row>
@@ -5545,16 +5721,16 @@
       <c r="B2" t="s">
         <v>203</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="13" t="s">
         <v>207</v>
       </c>
     </row>
@@ -5565,36 +5741,36 @@
       <c r="B3" t="s">
         <v>42</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="13" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="4" ht="28" spans="1:6">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="14" t="s">
         <v>41</v>
       </c>
       <c r="B4" t="s">
         <v>42</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="3" t="s">
         <v>213</v>
       </c>
       <c r="E4" t="s">
         <v>214</v>
       </c>
-      <c r="F4" s="9"/>
+      <c r="F4" s="13"/>
     </row>
     <row r="5" ht="28" spans="1:6">
       <c r="A5" s="1" t="s">
@@ -5603,34 +5779,34 @@
       <c r="B5" t="s">
         <v>216</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="F5" s="9"/>
+      <c r="F5" s="13"/>
     </row>
     <row r="6" ht="28" spans="1:6">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="14" t="s">
         <v>41</v>
       </c>
       <c r="B6" t="s">
         <v>42</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="3" t="s">
         <v>213</v>
       </c>
       <c r="E6" t="s">
         <v>214</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="F6" s="13" t="s">
         <v>217</v>
       </c>
     </row>
@@ -5641,34 +5817,34 @@
       <c r="B7" t="s">
         <v>42</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="F7" s="9"/>
+      <c r="F7" s="13"/>
     </row>
     <row r="8" ht="28" spans="1:6">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="14" t="s">
         <v>41</v>
       </c>
       <c r="B8" t="s">
         <v>42</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="3" t="s">
         <v>213</v>
       </c>
       <c r="E8" t="s">
         <v>214</v>
       </c>
-      <c r="F8" s="9"/>
+      <c r="F8" s="13"/>
     </row>
     <row r="9" ht="28" spans="1:6">
       <c r="A9" s="1" t="s">
@@ -5677,36 +5853,36 @@
       <c r="B9" t="s">
         <v>42</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="E9" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="F9" s="13" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="10" ht="28" spans="1:6">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="14" t="s">
         <v>41</v>
       </c>
       <c r="B10" t="s">
         <v>42</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="3" t="s">
         <v>213</v>
       </c>
       <c r="E10" t="s">
         <v>214</v>
       </c>
-      <c r="F10" s="9"/>
+      <c r="F10" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -5757,16 +5933,16 @@
       <c r="B2" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="3" t="s">
         <v>220</v>
       </c>
       <c r="E2" t="s">
         <v>221</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="13" t="s">
         <v>207</v>
       </c>
     </row>
@@ -5817,33 +5993,33 @@
       <c r="B2" t="s">
         <v>222</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="13" t="s">
         <v>225</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="3" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="3" ht="28" spans="3:6">
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="3" t="s">
         <v>228</v>
       </c>
       <c r="E3" t="s">
         <v>229</v>
       </c>
-      <c r="F3" s="9"/>
+      <c r="F3" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5908,33 +6084,33 @@
       <c r="B2" t="s">
         <v>230</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="13" t="s">
         <v>225</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="3" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="3" ht="28" spans="3:6">
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="3" t="s">
         <v>228</v>
       </c>
       <c r="E3" t="s">
         <v>229</v>
       </c>
-      <c r="F3" s="9"/>
+      <c r="F3" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5983,33 +6159,33 @@
       <c r="B2" t="s">
         <v>230</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="13" t="s">
         <v>225</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="3" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="3" ht="28" spans="3:6">
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="3" t="s">
         <v>228</v>
       </c>
       <c r="E3" t="s">
         <v>229</v>
       </c>
-      <c r="F3" s="9"/>
+      <c r="F3" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
